--- a/target/classes/P11_DataProvider/TD1.xlsx
+++ b/target/classes/P11_DataProvider/TD1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\3rdFebRestAssured\src\main\java\P11_DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA7FF5-18A6-4DFD-BA7D-3C3A870A6981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E273A5CA-3636-43DE-8665-1D5362AC2845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
